--- a/Excel/Datas/启动配置/StartProcessConfig.xlsx
+++ b/Excel/Datas/启动配置/StartProcessConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\creator\CT\Excel\Datas\启动配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCA4F2B-5B9C-4225-86FA-0BB34B6CCDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D7A489-3A5A-48B1-A635-8DBB8FE3B061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -290,12 +290,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -577,7 +571,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -604,10 +598,10 @@
       <c r="B1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="15"/>
@@ -688,7 +682,7 @@
       <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -778,10 +772,10 @@
       <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="15"/>
@@ -835,9 +829,15 @@
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20">
+        <v>2</v>
+      </c>
+      <c r="D7" s="20">
+        <v>20101</v>
+      </c>
       <c r="E7" s="20"/>
       <c r="F7" s="19"/>
       <c r="G7" s="5"/>

--- a/Excel/Datas/启动配置/StartProcessConfig.xlsx
+++ b/Excel/Datas/启动配置/StartProcessConfig.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\creator\CT\Excel\Datas\启动配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D7A489-3A5A-48B1-A635-8DBB8FE3B061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412DAE37-FD1C-422E-9776-FE7635B36733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
@@ -41,10 +42,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -66,6 +63,26 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个id没任何意义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于哪个区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>区进程序号，同一个区的进程序号不要冲突</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,14 +140,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -270,13 +279,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -290,6 +296,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -570,17 +579,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.21875" customWidth="1"/>
     <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
     <col min="8" max="8" width="13.109375" customWidth="1"/>
@@ -599,20 +608,24 @@
         <v>5</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
       <c r="N1" s="8"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -683,20 +696,24 @@
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="10"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
       <c r="N3" s="8"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -725,16 +742,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
+        <v>11</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -769,17 +790,21 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>6</v>
+      <c r="B5" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -811,17 +836,21 @@
       <c r="AI5"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
+      <c r="B6" s="18">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="20">
+      <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="D6" s="20">
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19">
         <v>20101</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="19"/>
       <c r="G6" s="5"/>
       <c r="I6" s="13"/>
       <c r="K6" s="13"/>
@@ -829,16 +858,10 @@
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
-        <v>2</v>
-      </c>
-      <c r="C7" s="20">
-        <v>2</v>
-      </c>
-      <c r="D7" s="20">
-        <v>20101</v>
-      </c>
-      <c r="E7" s="20"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="5"/>
       <c r="I7" s="13"/>
@@ -847,11 +870,11 @@
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="5"/>
       <c r="I8" s="13"/>
       <c r="K8" s="13"/>
@@ -859,11 +882,11 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="5"/>
       <c r="I9" s="13"/>
       <c r="K9" s="13"/>
@@ -871,11 +894,11 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="5"/>
       <c r="I10" s="13"/>
       <c r="K10" s="13"/>
@@ -933,4 +956,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080CFAD8-EB3B-41A1-9010-2F7F0D33F6DF}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="44.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="19">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19">
+        <v>20101</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>2002</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2</v>
+      </c>
+      <c r="E7" s="19">
+        <v>2</v>
+      </c>
+      <c r="F7" s="19">
+        <v>20102</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="5"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="5"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="5"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>